--- a/utils/model2json/dig_information.xlsx
+++ b/utils/model2json/dig_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="390">
   <si>
     <t>name</t>
   </si>
@@ -931,25 +931,25 @@
     <t>firm production in tradable sector</t>
   </si>
   <si>
-    <t>q_{x,t}=A_{x,t}\\left({z^e}_{t-1}\\right)^{\\psi_{x}}\\left(k_{x,t-1}\\right)^{\\alpha_{x}}\\left(L_{x,t}\\right)^{1-\\alpha_{x}}</t>
+    <t>q_{x,t}=A_{x,t}\left({z^e}_{t-1}\right)^{\psi_{x}}\left(k_{x,t-1}\right)^{\alpha_{x}}\left(L_{x,t}\right)^{1-\alpha_{x}}</t>
   </si>
   <si>
     <t>firm production in non-tradable sector</t>
   </si>
   <si>
-    <t>q_{n,t}=A_{n,t}\\left({z^e}_{t-1}\\right) ^{\\psi_{n}}\\left( k_{n,t-1}\\right)^{\\alpha_{n}}\\left( L_{n,t}\\right)^{1-\\alpha_{n}}</t>
+    <t>q_{n,t}=A_{n,t}\left({z^e}_{t-1}\right) ^{\psi_{n}}\left( k_{n,t-1}\right)^{\alpha_{n}}\left( L_{n,t}\right)^{1-\alpha_{n}}</t>
   </si>
   <si>
     <t>firm productivity in tradable sector</t>
   </si>
   <si>
-    <t>A_{x,t}=a_{x}\\left( \\frac{{q^{I}}_{x,t-1}}{\\bar{q^{I}}_{x}}\\right) ^{\\sigma_{x}}\\left( {k^{I}}_{x,t-1}\\right) ^{\\xi_{x}}</t>
+    <t>A_{x,t}=a_{x}\left( \frac{{q^{I}}_{x,t-1}}{\bar{q^{I}}_{x}}\right) ^{\sigma_{x}}\left( {k^{I}}_{x,t-1}\right) ^{\xi_{x}}</t>
   </si>
   <si>
     <t>firm productivity in non-tradable sector</t>
   </si>
   <si>
-    <t>A_{n,t}=a_{n}\\left( \\frac{{q^{I}}_{n,t-1}}{\\bar{q^{I}}_{n}}\\right)^{\\sigma_{n}}\\left( {k^{I}}_{n,t-1}\\right) ^{\\xi_{n}}</t>
+    <t>A_{n,t}=a_{n}\left( \frac{{q^{I}}_{n,t-1}}{\bar{q^{I}}_{n}}\right)^{\sigma_{n}}\left( {k^{I}}_{n,t-1}\right) ^{\xi_{n}}</t>
   </si>
   <si>
     <t>supply price of private capital</t>
@@ -967,211 +967,211 @@
     <t>marginal product of labor in non-tradable sector</t>
   </si>
   <si>
-    <t>P_{n,t}(1-\\alpha_{n})\\frac{q_{n,t}}{L_{n,t}}=w_{t}</t>
+    <t>P_{n,t}(1-\alpha_{n})\frac{q_{n,t}}{L_{n,t}}=w_{t}</t>
   </si>
   <si>
     <t>marginal product of labor in tradable sector</t>
   </si>
   <si>
-    <t>P_{x,t}(1-\\alpha_{x})\\frac{q_{x,t}}{L_{x,t}}=w_{t}</t>
+    <t>P_{x,t}(1-\alpha_{x})\frac{q_{x,t}}{L_{x,t}}=w_{t}</t>
   </si>
   <si>
     <t>marginal product of capital in non-tradable sector</t>
   </si>
   <si>
-    <t>P_{n,t}\\alpha_{n}\\frac{q_{n,t}}{k_{n,t-1}}=r_{n,t}</t>
+    <t>P_{n,t}\alpha_{n}\frac{q_{n,t}}{k_{n,t-1}}=r_{n,t}</t>
   </si>
   <si>
     <t>marginal product of capital in tradable sector</t>
   </si>
   <si>
-    <t>P_{x,t}\\alpha_{x}\\frac{q_{x,t}}{k_{x,t-1}}=r_{x,t}</t>
+    <t>P_{x,t}\alpha_{x}\frac{q_{x,t}}{k_{x,t-1}}=r_{x,t}</t>
   </si>
   <si>
     <t>constant elasticity of substitution consumption basket</t>
   </si>
   <si>
-    <t>{c^{i}}_{t}=\\left[ \\rho_{x}^{\\frac{1}{\\epsilon }}\\left( {c^{i}}_{x,t}\\right) ^{\\frac{\\epsilon-1}{\\epsilon}}+\\rho_{m}^{\\frac{1}{\\epsilon }}\\left({c^{i}}_{m,t}\\right) ^{\\frac{\\epsilon-1}{\\epsilon}}+(\\rho_{n})^{\\frac{1}{\\epsilon }}\\left( {c^{i}}_{n,t}\\right) ^{\\frac{\\epsilon -1}{\\epsilon }}\\right]^{^{\\frac{\\epsilon }{\\epsilon -1}}}\\text{ \\ \\ \\ for }i=\\mathfrak{s},\\mathfrak{h}</t>
+    <t>{c^{i}}_{t}=\left[ \rho_{x}^{\frac{1}{\epsilon }}\left( {c^{i}}_{x,t}\right) ^{\frac{\epsilon-1}{\epsilon}}+\rho_{m}^{\frac{1}{\epsilon }}\left({c^{i}}_{m,t}\right) ^{\frac{\epsilon-1}{\epsilon}}+(\rho_{n})^{\frac{1}{\epsilon }}\left( {c^{i}}_{n,t}\right) ^{\frac{\epsilon -1}{\epsilon }}\right]^{^{\frac{\epsilon }{\epsilon -1}}}\quad \text{for} \quad i=\mathfrak{s},\mathfrak{h}</t>
   </si>
   <si>
     <t>relative consumer price index</t>
   </si>
   <si>
-    <t>P_{t}=\\left[ \\rho_{x}P_{x,t}^{1-\\epsilon }+\\rho_{m}P_{m,t}^{1-\\epsilon }+\\rho_{n}P_{n,t}^{1-\\epsilon }\\right] ^{^{\\frac{1}{1-\\epsilon }}}</t>
+    <t>P_{t}=\left[ \rho_{x}P_{x,t}^{1-\epsilon }+\rho_{m}P_{m,t}^{1-\epsilon }+\rho_{n}P_{n,t}^{1-\epsilon }\right] ^{^{\frac{1}{1-\epsilon }}}</t>
   </si>
   <si>
     <t>demand function for goods</t>
   </si>
   <si>
-    <t>{c^{i}}_{j,t}=\\rho _{j}\\left( \\frac{P_{j,t}}{P_{t}}\\right) ^{-\\epsilon} {c^{i}}_{t}\\text{ \\ for $j=x,m,n$ and $i=\\mathfrak{s},\\mathfrak{h}$ }</t>
+    <t>{c^{i}}_{j,t}=\rho _{j}\left( \frac{P_{j,t}}{P_{t}}\right) ^{-\epsilon} {c^{i}}_{t} \quad \text{for} \quad j=x,m,n \quad \text{and} \quad i=\mathfrak{s},\mathfrak{h}</t>
   </si>
   <si>
     <t>household (savers) budget constraint</t>
   </si>
   <si>
-    <t>P_{t}{b^{\\mathfrak{s}}}_{t}-{b^{\\mathfrak{s}\\ast}}_{t} = r_{x,t} {k^{\\mathfrak{s}}}_{x,t-1} + r_{n,t-1} {k^{\\mathfrak{s}}}_{n,t-1} + w_{t}L_{t}^{\\mathfrak{s}}+ \\frac{\\mathcal{R}_{t}}{1+a} +\\frac{\\mathcal{T}_{t}}{1+a}-\\frac{1+{r^{\\ast}}_{t-1}}{1+g} {b^{\\mathfrak{s}\\ast}}_{t-1} \\\\ +\\frac{1+r_{t-1}}{1+g} P_{t} {b^{\\mathfrak{s}}}_{t-1} - P_{k,t}\\left( {i^{\\mathfrak{s}}}_{x,t} +{i^{\\mathfrak{s}}}_{n,t} + {AC^{\\mathfrak{s}}}_{x,t} + {AC^{\\mathfrak{s}}}_{n,t}\\right) - P_{t}{c^{\\mathfrak{s}}_{t}}(1+h_{t})-\\mu {z^{e}}_{t-1}-\\mathcal{P^{\\mathfrak{s}}}_{t} - {\\Phi^{\\mathfrak{s}}}_{t}</t>
+    <t>P_{t}{b^{\mathfrak{s}}}_{t}-{b^{\mathfrak{s}\ast}}_{t} = r_{x,t} {k^{\mathfrak{s}}}_{x,t-1} + r_{n,t-1} {k^{\mathfrak{s}}}_{n,t-1} + w_{t}L_{t}^{\mathfrak{s}}+ \frac{\mathcal{R}_{t}}{1+a} +\frac{\mathcal{T}_{t}}{1+a}-\frac{1+{r^{\ast}}_{t-1}}{1+g} {b^{\mathfrak{s}\ast}}_{t-1} +\frac{1+r_{t-1}}{1+g} P_{t} {b^{\mathfrak{s}}}_{t-1} - P_{k,t}\left( {i^{\mathfrak{s}}}_{x,t} +{i^{\mathfrak{s}}}_{n,t} + {AC^{\mathfrak{s}}}_{x,t} + {AC^{\mathfrak{s}}}_{n,t}\right) - P_{t}{c^{\mathfrak{s}}_{t}}(1+h_{t})-\mu {z^{e}}_{t-1}-\mathcal{P^{\mathfrak{s}}}_{t} - {\Phi^{\mathfrak{s}}}_{t}</t>
   </si>
   <si>
     <t>accumulation of tradable sector capital</t>
   </si>
   <si>
-    <t>(1+g) {k^{\\mathfrak{s}}}_{x,t} = {i^{\\mathfrak{s}}}_{x,t}+(1-\\delta_{x}) {k^{\\mathfrak{s}}}_{x,t-1}</t>
+    <t>(1+g) {k^{\mathfrak{s}}}_{x,t} = {i^{\mathfrak{s}}}_{x,t}+(1-\delta_{x}) {k^{\mathfrak{s}}}_{x,t-1}</t>
   </si>
   <si>
     <t>accumulation of non-tradable sector capital</t>
   </si>
   <si>
-    <t>(1+g) {k^{\\mathfrak{s}}}_{n,t} = {i^{\\mathfrak{s}}}_{n,t}+(1-\\delta_{n}) {k^{\\mathfrak{s}}}_{n,t-1}</t>
+    <t>(1+g) {k^{\mathfrak{s}}}_{n,t} = {i^{\mathfrak{s}}}_{n,t}+(1-\delta_{n}) {k^{\mathfrak{s}}}_{n,t-1}</t>
   </si>
   <si>
     <t>capital adjustment costs</t>
   </si>
   <si>
-    <t>{AC^{\\mathfrak{s}}}_{j,t} \\equiv \\frac{v}{2}\\left( \\frac{{i^{\\mathfrak{s}}}_{j,t}}{{k^{\\mathfrak{s}}}_{j,t-1}}-\\delta_{j} -g\\right) ^{2} {k^{\\mathfrak{s}}}_{j,t-1}, \\text{ \\ for \\ } j=x,n</t>
+    <t>{AC^{\mathfrak{s}}}_{j,t} \equiv \frac{v}{2}\left( \frac{{i^{\mathfrak{s}}}_{j,t}}{{k^{\mathfrak{s}}}_{j,t-1}}-\delta_{j} -g\right) ^{2} {k^{\mathfrak{s}}}_{j,t-1} \quad \text{for} \quad j=x,n</t>
   </si>
   <si>
     <t>portfolio adjustment costs</t>
   </si>
   <si>
-    <t>\\mathcal{P^{\\mathfrak{s}}}_{t} \\equiv \\frac{\\eta}{2}({b^{\\mathfrak{s}\\ast}}_{t} - \\bar{b^{\\mathfrak{s}\\ast}})^{2}</t>
+    <t>\mathcal{P^{\mathfrak{s}}}_{t} \equiv \frac{\eta}{2}({b^{\mathfrak{s}\ast}}_{t} - \bar{b^{\mathfrak{s}\ast}})^{2}</t>
   </si>
   <si>
     <t>household (savers) first-order condition (modified consumption Euler equation)</t>
   </si>
   <si>
-    <t>{c^{\\mathfrak{s}}}_{t}={c^{\\mathfrak{s}}}_{t+1}\\left( \\beta \\frac{1+r_{t}}{1+g}\\frac{1+h_{t}}{1+h_{t+1}}\\right) ^{-\\tau }</t>
+    <t>{c^{\mathfrak{s}}}_{t}={c^{\mathfrak{s}}}_{t+1}\left( \beta \frac{1+r_{t}}{1+g}\frac{1+h_{t}}{1+h_{t+1}}\right) ^{-\tau }</t>
   </si>
   <si>
     <t>household (savers) first-order condition (equalizes real interest rate on domestic bonds and foreign private bonds)</t>
   </si>
   <si>
-    <t>(1+r_{t})\\frac{P_{t+1}}{P_{t}}=\\frac{1+{r^{\\ast}}_{t}}{\\left[ 1-\\eta ({b^{\\mathfrak{s}\\ast}}_{t}-\\bar{b^{\\mathfrak{s}\\ast}})\\right] }</t>
+    <t>(1+r_{t})\frac{P_{t+1}}{P_{t}}=\frac{1+{r^{\ast}}_{t}}{\left[ 1-\eta ({b^{\mathfrak{s}\ast}}_{t}-\bar{b^{\mathfrak{s}\ast}})\right] }</t>
   </si>
   <si>
     <t>household (savers) first-order condition (equalizes return on capital in tradable sector with real interest rate)</t>
   </si>
   <si>
-    <t>\\frac{r_{x,t+1}}{P_{k,t+1}}+1-\\delta_{x} +v{\\Upsilon^{\\mathfrak{s}}}_{x,t+1} \\left( \\frac{{i^{\\mathfrak{s}}}_{x,t+1}}{{k^{\\mathfrak{s}}}_{x,t}}+1-\\delta_{x}\\right) -\\frac{v}{2}\\left( {\\Upsilon^{\\mathfrak{s}}}_{x,t+1}\\right)^{2}\\\\ =(1+r_{t})\\frac{P_{t+1}}{P_{t}}\\frac{P_{k,t}}{P_{k,t+1}}\\left(1+v{\\Upsilon^{\\mathfrak{s}}}_{x,t}\\right)</t>
+    <t>\frac{r_{x,t+1}}{P_{k,t+1}}+1-\delta_{x} +v{\Upsilon^{\mathfrak{s}}}_{x,t+1} \left( \frac{{i^{\mathfrak{s}}}_{x,t+1}}{{k^{\mathfrak{s}}}_{x,t}}+1-\delta_{x}\right) -\frac{v}{2}\left( {\Upsilon^{\mathfrak{s}}}_{x,t+1}\right)^{2} =(1+r_{t})\frac{P_{t+1}}{P_{t}}\frac{P_{k,t}}{P_{k,t+1}}\left(1+v{\Upsilon^{\mathfrak{s}}}_{x,t}\right)</t>
   </si>
   <si>
     <t>household (savers) first-order condition (equalizes return on capital in non-tradable sector with real interest rate)</t>
   </si>
   <si>
-    <t>\\frac{r_{n,t+1}}{P_{k,t+1}}+1-\\delta_{n} +v{\\Upsilon^{\\mathfrak{s}}}_{n,t+1} \\left( \\frac{{i^{\\mathfrak{s}}}_{n,t+1}}{{k^{\\mathfrak{s}}}_{n,t}}+1-\\delta_{n}\\right) -\\frac{v}{2}\\left( {\\Upsilon^{\\mathfrak{s}}}_{n,t+1}\\right)^{2}\\\\ =(1+r_{t})\\frac{P_{t+1}}{P_{t}}\\frac{P_{k,t}}{P_{k,t+1}}\\left(1+v{\\Upsilon^{\\mathfrak{s}}}_{n,t}\\right)</t>
+    <t>\frac{r_{n,t+1}}{P_{k,t+1}}+1-\delta_{n} +v{\Upsilon^{\mathfrak{s}}}_{n,t+1} \left( \frac{{i^{\mathfrak{s}}}_{n,t+1}}{{k^{\mathfrak{s}}}_{n,t}}+1-\delta_{n}\right) -\frac{v}{2}\left( {\Upsilon^{\mathfrak{s}}}_{n,t+1}\right)^{2} = (1+r_{t})\frac{P_{t+1}}{P_{t}}\frac{P_{k,t}}{P_{k,t+1}}\left(1+v{\Upsilon^{\mathfrak{s}}}_{n,t}\right)</t>
   </si>
   <si>
     <t>capital adjustment costs term</t>
   </si>
   <si>
-    <t>{\\Upsilon^{\\mathfrak{s}}}_{j,t}=\\left( \\frac{{i^{\\mathfrak{s}}}_{j,t}}{{k^{\\mathfrak{s}}}_{j,t-1}}-\\delta_{j} -g\\right) \\text{ \\ for $j=x,n$ \\ }</t>
+    <t>{\Upsilon^{\mathfrak{s}}}_{j,t}=\left( \frac{{i^{\mathfrak{s}}}_{j,t}}{{k^{\mathfrak{s}}}_{j,t-1}}-\delta_{j} -g\right) \quad \text{for}\quad j=x,n</t>
   </si>
   <si>
     <t>private demand for foreign debt</t>
   </si>
   <si>
-    <t>\\eta ({b^{\\mathfrak{s}\\ast}}_{t}-\\bar{b}^{\\mathfrak{s}\\ast})=1-\\frac{1+{r^{\\ast}}_{t}}{(1+r_{t})\\frac{P_{t+1}}{P_{t}}}</t>
+    <t>\eta ({b^{\mathfrak{s}\ast}}_{t}-\bar{b}^{\mathfrak{s}\ast})=1-\frac{1+{r^{\ast}}_{t}}{(1+r_{t})\frac{P_{t+1}}{P_{t}}}</t>
   </si>
   <si>
     <t>real interest rate on private external debt</t>
   </si>
   <si>
-    <t>{r^{\\ast}}_{t}=r_{dc,t}+\\mathfrak{u}</t>
+    <t>{r^{\ast}}_{t}=r_{dc,t}+\mathfrak{u}</t>
   </si>
   <si>
     <t>household (non-savers) budget constraint</t>
   </si>
   <si>
-    <t>(1+h_{t})P_{t} {c^{\\mathfrak{h}}}_{t}=w_{t}L^{\\mathfrak{h}}+\\frac{a}{1+a}(\\mathcal{R}_{t}+\\mathcal{T}_{t})</t>
+    <t>(1+h_{t})P_{t} {c^{\mathfrak{h}}}_{t}=w_{t}L^{\mathfrak{h}}+\frac{a}{1+a}(\mathcal{R}_{t}+\mathcal{T}_{t})</t>
   </si>
   <si>
     <t>accumulation of public capital</t>
   </si>
   <si>
-    <t>(1+g)z_{t}=(1-\\delta_{z} )z_{t-1}+i_{z,t}</t>
+    <t>(1+g)z_{t}=(1-\delta_{z} )z_{t-1}+i_{z,t}</t>
   </si>
   <si>
     <t>conversion of public capital into effective public capital</t>
   </si>
   <si>
-    <t>z_{t}^{e}=\\bar{s}\\bar{z}+s(z_{t}-\\bar{z}), \\text{ \\ with $\\bar{s}\\in\\lbrack 0,1]$ \\ and \\ $s\\in \\lbrack 0,1]$ }</t>
+    <t>z_{t}^{e}=\bar{s}\bar{z}+s(z_{t}-\bar{z}) \quad \text{with} \quad \bar{s} \in \lbrack 0,1] \quad \text{and} \quad s \in \lbrack 0,1]</t>
   </si>
   <si>
     <t>accumulation of effective public capital</t>
   </si>
   <si>
-    <t>(1+g) {z^{e}}_{t}=(1-\\delta_{z} ){z^{e}}_{t-1}+s(i_{z,t}-\\bar{\\imath}_{z})+\\bar{s}\\bar{\\imath}_{z}</t>
+    <t>(1+g) {z^{e}}_{t}=(1-\delta_{z} ){z^{e}}_{t-1}+s(i_{z,t}-\bar{\imath}_{z})+\bar{s}\bar{\imath}_{z}</t>
   </si>
   <si>
     <t>government budget constraint</t>
   </si>
   <si>
-    <t>P_{t}\\Delta b_{t}+\\Delta d_{c,t}+\\Delta d_{t} = \\frac{r_{t-1}-g}{1+g}P_{t}b_{t-1}+\\frac{r_{d,t-1}-g}{1+g}d_{t-1}+\\frac{r_{dc,t-1}-g}{1+g}d_{c,t-1}\\\\ + P_{z,t}\\mathbb{I}_{z,t}+\\mathcal{T}_{t}-h_{t}P_{t}c_{t}-\\mathcal{G}_{t}-\\mathcal{N}_{t}-\\mu {z^{e}}_{t-1}</t>
+    <t>P_{t}\Delta b_{t}+\Delta d_{c,t}+\Delta d_{t} = \frac{r_{t-1}-g}{1+g}P_{t}b_{t-1}+\frac{r_{d,t-1}-g}{1+g}d_{t-1}+\frac{r_{dc,t-1}-g}{1+g}d_{c,t-1} + P_{z,t}\mathbb{I}_{z,t}+\mathcal{T}_{t}-h_{t}P_{t}c_{t}-\mathcal{G}_{t}-\mathcal{N}_{t}-\mu {z^{e}}_{t-1}</t>
   </si>
   <si>
     <t>real interest rate on public external debt</t>
   </si>
   <si>
-    <t>r_{dc,t}=r^{f}+\\upsilon _{g}e^{\\eta _{g}\\left( \\frac{d_{t}+d_{c,t}}{y_{t}}-\\frac{\\bar{d}+\\bar{d}_{c}}{\\bar{y}}\\right) }</t>
+    <t>r_{dc,t}=r^{f}+\upsilon _{g}e^{\eta _{g}\left( \frac{d_{t}+d_{c,t}}{y_{t}}-\frac{\bar{d}+\bar{d}_{c}}{\bar{y}}\right) }</t>
   </si>
   <si>
     <t>cost overruns from absorptive capacity constraints</t>
   </si>
   <si>
-    <t>\\mathbb{I}_{z,t}=\\mathcal{H}_{t}(i_{z,t}-\\bar{\\imath}_{z})+\\bar{\\imath}_{z}</t>
+    <t>\mathbb{I}_{z,t}=\mathcal{H}_{t}(i_{z,t}-\bar{\imath}_{z})+\bar{\imath}_{z}</t>
   </si>
   <si>
     <t>absorptive capacity constraints</t>
   </si>
   <si>
-    <t>\\mathcal{H}_{t}=\\left( 1+\\frac{i_{z,t}}{z_{t-1}}-\\delta -g\\right)^{\\phi }</t>
+    <t>\mathcal{H}_{t}=\left( 1+\frac{i_{z,t}}{z_{t-1}}-\delta -g\right)^{\phi }</t>
   </si>
   <si>
     <t>fiscal gap</t>
   </si>
   <si>
-    <t>\\mathfrak{Gap}_{t}=\\frac{1+r_{d}}{1+g}d_{t-1}-d_{t}+\\frac{r_{dc,t-1}-g}{1+g}dc_{t-1}+\\frac{r_{t-1}-g}{1+g}P_{t}b_{t-1} \\\\ + P_{z,t}\\mathbb{I}_{t}+\\mathcal{T}_{o}-h_{o}P_{t}c_{t}-\\mathcal{G}_{t}-\\mathcal{N}_{t}-\\mu {z^{e}}_{t-1}</t>
+    <t>\mathfrak{Gap}_{t}=\frac{1+r_{d}}{1+g}d_{t-1}-d_{t}+\frac{r_{dc,t-1}-g}{1+g}dc_{t-1}+\frac{r_{t-1}-g}{1+g}P_{t}b_{t-1} + P_{z,t}\mathbb{I}_{t}+\mathcal{T}_{o}-h_{o}P_{t}c_{t}-\mathcal{G}_{t}-\mathcal{N}_{t}-\mu {z^{e}}_{t-1}</t>
   </si>
   <si>
     <t>fiscal gap (alternate formulation)</t>
   </si>
   <si>
-    <t>\\mathfrak{Gap}_{t}=P_{t}\\Delta b_{t}+\\Delta d_{c,t}+(h_{t}-h_{o})P_{t}c_{t}-(\\mathcal{T}_{t}-\\mathcal{T}_{o})</t>
+    <t>\mathfrak{Gap}_{t}=P_{t}\Delta b_{t}+\Delta d_{c,t}+(h_{t}-h_{o})P_{t}c_{t}-(\mathcal{T}_{t}-\mathcal{T}_{o})</t>
   </si>
   <si>
     <t>target VAT rate</t>
   </si>
   <si>
-    <t>h_{t}^{\\text{target}} = h_{o}+(1-\\lambda )\\frac{\\mathfrak{Gap}_{t}}{P_{t}c_{t}}</t>
+    <t>h_{t}^{\text{target}} = h_{o}+(1-\lambda )\frac{\mathfrak{Gap}_{t}}{P_{t}c_{t}}</t>
   </si>
   <si>
     <t>target government transfers level</t>
   </si>
   <si>
-    <t>\\mathcal{T}_{t}^{\\text{target}}=\\mathcal{T}_{o}-\\lambda \\mathfrak{Gap}_{t}</t>
+    <t>\mathcal{T}_{t}^{\text{target}}=\mathcal{T}_{o}-\lambda \mathfrak{Gap}_{t}</t>
   </si>
   <si>
     <t>VAT rate reaction function</t>
   </si>
   <si>
-    <t>h_{t}=Min\\left\\{ h_{t}^{r},h^{u}\\right\\}</t>
+    <t>h_{t}=Min\left\{ h_{t}^{r},h^{u}\right\}</t>
   </si>
   <si>
     <t>government transfers reaction function</t>
   </si>
   <si>
-    <t>\\mathcal{T}_{t}=Max\\left\\{ \\mathcal{T}_{t}^{r},\\mathcal{T}^{l}\\right\\}</t>
+    <t>\mathcal{T}_{t}=Max\left\{ \mathcal{T}_{t}^{r},\mathcal{T}^{l}\right\}</t>
   </si>
   <si>
     <t>fiscal rule for VAT rate</t>
   </si>
   <si>
-    <t>h_{t}^{r}=h_{t-1}+\\lambda _{1}({\\small h}_{t}^{\\text{target}}-h_{t-1})+\\lambda _{2}\\frac{(x_{t-1}-x^{\\text{target}})}{y_{t}},\\quad \\text{with}\\quad \\text{ }\\lambda _{1},\\lambda _{2}&gt;0</t>
+    <t>h_{t}^{r}=h_{t-1}+\lambda _{1}({\small h}_{t}^{\text{target}}-h_{t-1})+\lambda _{2}\frac{(x_{t-1}-x^{\text{target}})}{y_{t}} \quad \text{with} \quad \lambda _{1},\lambda _{2}&gt;0</t>
   </si>
   <si>
     <t>fiscal rule for government transfers</t>
   </si>
   <si>
-    <t>\\mathcal{T}_{t}^{r}=\\mathcal{T}_{t-1}+\\lambda _{3}(\\mathcal{T}_{t}^{\\text{target}}-\\mathcal{T}_{t-1})-\\lambda _{4}(x_{t-1}-x^{\\text{target}}),\\quad \\text{with}\\quad \\text{ }\\lambda _{3},\\lambda _{4}&gt;0</t>
+    <t>\mathcal{T}_{t}^{r}=\mathcal{T}_{t-1}+\lambda _{3}(\mathcal{T}_{t}^{\text{target}}-\mathcal{T}_{t-1})-\lambda _{4}(x_{t-1}-x^{\text{target}}) \quad \text{with}\quad \lambda _{3},\lambda _{4}&gt;0</t>
   </si>
   <si>
     <t>market-clearing condition for labor</t>
@@ -1183,13 +1183,13 @@
     <t>market-clearing condition for non-tradable goods</t>
   </si>
   <si>
-    <t>q_{n,t}=\\rho _{n}\\left( \\frac{P_{n,t}}{P_{t}}\\right) ^{-\\epsilon}c_{t}+a_{k}\\left( i_{x,t}+i_{n,t}+AC_{x,t}+AC_{n,t}\\right) +a_{z}\\mathbb{I}_{z,t}</t>
+    <t>q_{n,t}=\rho _{n}\left( \frac{P_{n,t}}{P_{t}}\right) ^{-\epsilon}c_{t}+a_{k}\left( i_{x,t}+i_{n,t}+AC_{x,t}+AC_{n,t}\right) +a_{z}\mathbb{I}_{z,t}</t>
   </si>
   <si>
     <t>sum of budget constraints (net foreign debt equals national spending less national income)</t>
   </si>
   <si>
-    <t>d_{t}-d_{t-1}+d_{c,t}-d_{c,t-1}+{b^{\\ast}}_{t}-{b^{\\ast}}_{t-1} = \\frac{r_{d}-g}{1+g}d_{t-1}+\\frac{r_{dc,t-1}-g}{1+g}d_{c,t-1}+\\frac{{r^{\\ast}}_{t-1}-g}{1+g}{b^{\\ast}}_{t-1} \\\\ + \\mathcal{P}_{t}+P_{z,t}\\mathbb{I}_{z,t}+P_{k,t}\\left(i_{x,t}+i_{n,t}+AC_{x,t}+AC_{n,t}\\right) \\\\+ P_{t}c_{t}-P_{n,t}q_{n,t}-P_{x,t}q_{x,t}-\\mathcal{R}_{t}-\\mathcal{G}_{t}-\\mathcal{N}_{t}</t>
+    <t>d_{t}-d_{t-1}+d_{c,t}-d_{c,t-1}+{b^{\ast}}_{t}-{b^{\ast}}_{t-1} = \frac{r_{d}-g}{1+g}d_{t-1}+\frac{r_{dc,t-1}-g}{1+g}d_{c,t-1}+\frac{{r^{\ast}}_{t-1}-g}{1+g}{b^{\ast}}_{t-1} + \mathcal{P}_{t}+P_{z,t}\mathbb{I}_{z,t}+P_{k,t}\left(i_{x,t}+i_{n,t}+AC_{x,t}+AC_{n,t}\right) + P_{t}c_{t}-P_{n,t}q_{n,t}-P_{x,t}q_{x,t}-\mathcal{R}_{t}-\mathcal{G}_{t}-\mathcal{N}_{t}</t>
   </si>
 </sst>
 </file>
@@ -2100,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3063,10 +3063,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3101,485 +3101,517 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
+        <f aca="false">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
+        <f aca="false">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
+        <f aca="false">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
+        <f aca="false">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <f aca="false">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
+        <f aca="false">A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
+        <f aca="false">A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <f aca="false">A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <f aca="false">A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
+        <f aca="false">A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
+        <f aca="false">A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
+        <f aca="false">A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <f aca="false">A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <f aca="false">A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
+        <f aca="false">A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
+        <f aca="false">A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
+        <f aca="false">A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <f aca="false">A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
+        <f aca="false">A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
+        <f aca="false">A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
+        <f aca="false">A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
+        <f aca="false">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
+        <f aca="false">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
+        <f aca="false">A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
+        <f aca="false">A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
+        <f aca="false">A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
+        <f aca="false">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
+        <f aca="false">A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
+        <f aca="false">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
+        <f aca="false">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
+        <f aca="false">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
+        <f aca="false">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
+        <f aca="false">A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
+        <f aca="false">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
+        <f aca="false">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
+        <f aca="false">A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
+        <f aca="false">A38+1</f>
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
+        <f aca="false">A39+1</f>
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
+        <f aca="false">A40+1</f>
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
+        <f aca="false">A41+1</f>
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
+        <f aca="false">A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
+        <f aca="false">A43+1</f>
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
+        <f aca="false">A44+1</f>
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="C46" s="0" t="s">
         <v>389</v>
       </c>
     </row>

--- a/utils/model2json/dig_information.xlsx
+++ b/utils/model2json/dig_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="391">
   <si>
     <t>name</t>
   </si>
@@ -400,7 +400,7 @@
     <t>tau</t>
   </si>
   <si>
-    <t>\\tau</t>
+    <t>\tau</t>
   </si>
   <si>
     <t>intertemporal elasticity of substitution</t>
@@ -415,7 +415,7 @@
     <t>epsilon</t>
   </si>
   <si>
-    <t>\\epsilon</t>
+    <t>\epsilon</t>
   </si>
   <si>
     <t>intratemporal elasticity of substitution across goods</t>
@@ -430,7 +430,7 @@
     <t>alpha_n</t>
   </si>
   <si>
-    <t>\\alpha_{n}</t>
+    <t>\alpha_{n}</t>
   </si>
   <si>
     <t>capital’s share in value added in the non-traded sector</t>
@@ -445,7 +445,7 @@
     <t>alpha_x</t>
   </si>
   <si>
-    <t>\\alpha_{x}</t>
+    <t>\alpha_{x}</t>
   </si>
   <si>
     <t>capital’s share in value added in the traded sector</t>
@@ -457,7 +457,7 @@
     <t>xi_n</t>
   </si>
   <si>
-    <t>\\xi_{n}</t>
+    <t>\xi_{n}</t>
   </si>
   <si>
     <t>capital learning externalities (traded sector)</t>
@@ -472,7 +472,7 @@
     <t>xi_x</t>
   </si>
   <si>
-    <t>\\xi_{x}</t>
+    <t>\xi_{x}</t>
   </si>
   <si>
     <t>capital learning externalities (non-traded sector)</t>
@@ -484,7 +484,7 @@
     <t>sigma_n</t>
   </si>
   <si>
-    <t>\\sigma_{n}</t>
+    <t>\sigma_{n}</t>
   </si>
   <si>
     <t>sectoral output learning externalities (non-traded)</t>
@@ -493,7 +493,7 @@
     <t>sigma_x</t>
   </si>
   <si>
-    <t>\\sigma_{x}</t>
+    <t>\sigma_{x}</t>
   </si>
   <si>
     <t>sectoral output learning externalities (traded)</t>
@@ -502,7 +502,7 @@
     <t>alpha_k</t>
   </si>
   <si>
-    <t>\\alpha_{k}</t>
+    <t>\alpha_{k}</t>
   </si>
   <si>
     <t>cost share of non-traded inputs in the production of private capital</t>
@@ -517,7 +517,7 @@
     <t>alpha_z</t>
   </si>
   <si>
-    <t>\\alpha_{z}</t>
+    <t>\alpha_{z}</t>
   </si>
   <si>
     <t>cost share of non-traded inputs in the production of public capital</t>
@@ -529,7 +529,7 @@
     <t>nxpsi</t>
   </si>
   <si>
-    <t>\\psi_{nx}</t>
+    <t>\psi_{nx}</t>
   </si>
   <si>
     <t>sectoral output elasticity ratio</t>
@@ -544,7 +544,7 @@
     <t>delta_n</t>
   </si>
   <si>
-    <t>\\delta_{n}</t>
+    <t>\delta_{n}</t>
   </si>
   <si>
     <t>depreciation rate of non-traded capital inputs</t>
@@ -559,7 +559,7 @@
     <t>delta_x</t>
   </si>
   <si>
-    <t>\\delta_{x}</t>
+    <t>\delta_{x}</t>
   </si>
   <si>
     <t>depreciation rate of traded capital inputs</t>
@@ -571,7 +571,7 @@
     <t>delta_z</t>
   </si>
   <si>
-    <t>\\delta_{z}</t>
+    <t>\delta_{z}</t>
   </si>
   <si>
     <t>depreciation rate of public capital inputs</t>
@@ -583,7 +583,7 @@
     <t>omega</t>
   </si>
   <si>
-    <t>\\Omega</t>
+    <t>\Omega</t>
   </si>
   <si>
     <t>elasticity of investment with respect to Tobin's q</t>
@@ -637,7 +637,7 @@
     <t>eta</t>
   </si>
   <si>
-    <t>\\eta</t>
+    <t>\eta</t>
   </si>
   <si>
     <t>portfolio adjustment costs parameter</t>
@@ -652,7 +652,7 @@
     <t>etag</t>
   </si>
   <si>
-    <t>\\eta_{g}</t>
+    <t>\eta_{g}</t>
   </si>
   <si>
     <t>public debt risk premium</t>
@@ -673,7 +673,7 @@
     <t>s_s</t>
   </si>
   <si>
-    <t>\\bar{s}</t>
+    <t>\bar{s}</t>
   </si>
   <si>
     <t>steady state efficiency of public investment</t>
@@ -682,7 +682,7 @@
     <t>phi</t>
   </si>
   <si>
-    <t>\\phi</t>
+    <t>\phi</t>
   </si>
   <si>
     <t>absorptive capacity constraint parameter</t>
@@ -709,7 +709,7 @@
     <t>imp2gdp</t>
   </si>
   <si>
-    <t>---</t>
+    <t>\text{imports-to-GDP}</t>
   </si>
   <si>
     <t>imports-to-GDP ratio</t>
@@ -721,13 +721,16 @@
     <t>VA_n</t>
   </si>
   <si>
+    <t>\text{valued added in NT sector}</t>
+  </si>
+  <si>
     <t>value added in non-traded sector</t>
   </si>
   <si>
     <t>lambda</t>
   </si>
   <si>
-    <t>\\lambda</t>
+    <t>\lambda</t>
   </si>
   <si>
     <t>division of fiscal adjustment</t>
@@ -739,7 +742,7 @@
     <t>lambda1</t>
   </si>
   <si>
-    <t>\\lambda_1</t>
+    <t>\lambda_1</t>
   </si>
   <si>
     <t>speed of reaction of tax adjustment</t>
@@ -751,7 +754,7 @@
     <t>lambda2</t>
   </si>
   <si>
-    <t>\\lambda_2</t>
+    <t>\lambda_2</t>
   </si>
   <si>
     <t>speed of reaction of debt adjustment</t>
@@ -760,7 +763,7 @@
     <t>lambda3</t>
   </si>
   <si>
-    <t>\\lambda_3</t>
+    <t>\lambda_3</t>
   </si>
   <si>
     <t>speed of reaction of transfer adjustment</t>
@@ -772,13 +775,13 @@
     <t>lambda4</t>
   </si>
   <si>
-    <t>\\lambda_4</t>
+    <t>\lambda_4</t>
   </si>
   <si>
     <t>itermax</t>
   </si>
   <si>
-    <t>\\text{itermax}</t>
+    <t>\text{itermax}</t>
   </si>
   <si>
     <t>Determines the maximum number of iterations used in the non-linear solver. The default value of maxit is 10. The maxit option is shared with the steady command. So a change in maxit in asimul command will also be considered in the following steady commands.</t>
@@ -838,7 +841,7 @@
     <t>share_bstar</t>
   </si>
   <si>
-    <t>\\bar{b}^{\\mathfrak{s}\\ast}</t>
+    <t>\bar{b}^{\mathfrak{s}\ast}</t>
   </si>
   <si>
     <t>initial private external debt-to-gdp ratio</t>
@@ -850,7 +853,7 @@
     <t>share_d</t>
   </si>
   <si>
-    <t>\\bar{d}</t>
+    <t>\bar{d}</t>
   </si>
   <si>
     <t>initial public concessional debt-to-gdp ratio</t>
@@ -859,7 +862,7 @@
     <t>share_dc</t>
   </si>
   <si>
-    <t>\\bar{d}_{c}</t>
+    <t>\bar{d}_{c}</t>
   </si>
   <si>
     <t>initial public external commercial debt-to-gdp ratio</t>
@@ -868,7 +871,7 @@
     <t>share_remit</t>
   </si>
   <si>
-    <t>\\mathcal{R}_o</t>
+    <t>\mathcal{R}_o</t>
   </si>
   <si>
     <t>initial remittances-to-gdp ratio</t>
@@ -883,7 +886,7 @@
     <t>share_grants</t>
   </si>
   <si>
-    <t>\\mathcal{G}_o</t>
+    <t>\mathcal{G}_o</t>
   </si>
   <si>
     <t>initial grants-to-gdp ratio</t>
@@ -892,7 +895,7 @@
     <t>[29,33,43]</t>
   </si>
   <si>
-    <t>\\mathcal{N}_o</t>
+    <t>\mathcal{N}_o</t>
   </si>
   <si>
     <t>initial natural resource revenue-to-gdp ratio</t>
@@ -901,7 +904,7 @@
     <t>izy</t>
   </si>
   <si>
-    <t>\\bar{\\imath}_{z}</t>
+    <t>\bar{\imath}_{z}</t>
   </si>
   <si>
     <t>initial infrastructure investment-to-gdp ratio</t>
@@ -2100,8 +2103,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2640,13 +2643,13 @@
         <v>232</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.494</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>189</v>
@@ -2657,107 +2660,107 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.02</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.02</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2778,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2809,182 +2812,182 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.06</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.04</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,39 +2995,39 @@
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.06</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,19 +3035,19 @@
         <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3068,7 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3082,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3093,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,10 +3120,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,10 +3144,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,10 +3168,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,10 +3204,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3216,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,10 +3228,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,10 +3240,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,10 +3252,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,10 +3264,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,10 +3276,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +3288,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3300,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3312,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,10 +3324,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,10 +3336,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3348,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3360,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,10 +3372,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3384,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,10 +3396,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3408,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,10 +3420,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,10 +3432,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3444,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3456,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +3468,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,10 +3480,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,10 +3492,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,10 +3504,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +3516,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,10 +3528,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,10 +3540,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,10 +3552,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,10 +3564,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,10 +3576,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3588,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,10 +3600,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,10 +3612,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/utils/model2json/dig_information.xlsx
+++ b/utils/model2json/dig_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -721,7 +721,7 @@
     <t>VA_n</t>
   </si>
   <si>
-    <t>\text{valued added in NT sector}</t>
+    <t>\text{NT value add}</t>
   </si>
   <si>
     <t>value added in non-traded sector</t>
@@ -2103,8 +2103,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2781,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
